--- a/WizardDev/WizardDev   hr@wizardsdev.com.xlsx
+++ b/WizardDev/WizardDev   hr@wizardsdev.com.xlsx
@@ -584,7 +584,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
